--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126121a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126121a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>coeficientes de variação das estimativas de pessoas de 10 anos ou mais de idade que procuraram a polícia em decorrência do último furto que foram vítimas, no período de referência de 365 dias, mas nãofizeram registro do último furto na delegacia de polícia (%)</t>
   </si>
@@ -43,16 +43,10 @@
     <t>total (1)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
-  </si>
-  <si>
-    <t>cor ou raça</t>
   </si>
   <si>
     <t>branca</t>
@@ -416,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,31 +482,52 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>8.547746182033309</v>
+      </c>
+      <c r="C5">
+        <v>24.51452535141506</v>
+      </c>
+      <c r="D5">
+        <v>27.63833532665631</v>
+      </c>
+      <c r="E5">
+        <v>24.58994773956476</v>
+      </c>
+      <c r="F5">
+        <v>18.63716257080701</v>
+      </c>
+      <c r="G5">
+        <v>19.43162826279383</v>
+      </c>
+      <c r="H5">
+        <v>17.9464515034806</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>8.547746182033309</v>
+        <v>9.416005312397829</v>
       </c>
       <c r="C6">
-        <v>24.51452535141506</v>
+        <v>31.5598088616173</v>
       </c>
       <c r="D6">
-        <v>27.63833532665631</v>
+        <v>33.58869553080675</v>
       </c>
       <c r="E6">
-        <v>24.58994773956476</v>
+        <v>36.20795988253487</v>
       </c>
       <c r="F6">
-        <v>18.63716257080701</v>
+        <v>22.61313185742204</v>
       </c>
       <c r="G6">
-        <v>19.43162826279383</v>
+        <v>18.51885206770865</v>
       </c>
       <c r="H6">
-        <v>17.9464515034806</v>
+        <v>16.40701639024904</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -520,81 +535,50 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>9.416005312397829</v>
+        <v>10.53347111868847</v>
       </c>
       <c r="C7">
-        <v>31.5598088616173</v>
+        <v>35.63229518455669</v>
       </c>
       <c r="D7">
-        <v>33.58869553080675</v>
+        <v>38.46578453398266</v>
       </c>
       <c r="E7">
-        <v>36.20795988253487</v>
+        <v>31.13713528201504</v>
       </c>
       <c r="F7">
-        <v>22.61313185742204</v>
+        <v>25.60870304520163</v>
       </c>
       <c r="G7">
-        <v>18.51885206770865</v>
+        <v>21.58380445950704</v>
       </c>
       <c r="H7">
-        <v>16.40701639024904</v>
+        <v>18.2246691947978</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>10.53347111868847</v>
-      </c>
-      <c r="C9">
-        <v>35.63229518455669</v>
-      </c>
-      <c r="D9">
-        <v>38.46578453398266</v>
-      </c>
-      <c r="E9">
-        <v>31.13713528201504</v>
-      </c>
-      <c r="F9">
-        <v>25.60870304520163</v>
-      </c>
-      <c r="G9">
-        <v>21.58380445950704</v>
-      </c>
-      <c r="H9">
-        <v>18.2246691947978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
+      <c r="B8">
         <v>8.204958903161975</v>
       </c>
-      <c r="C10">
+      <c r="C8">
         <v>23.06781484004419</v>
       </c>
-      <c r="D10">
+      <c r="D8">
         <v>25.36145974115731</v>
       </c>
-      <c r="E10">
+      <c r="E8">
         <v>26.66351051472256</v>
       </c>
-      <c r="F10">
+      <c r="F8">
         <v>17.18748719280963</v>
       </c>
-      <c r="G10">
+      <c r="G8">
         <v>17.02705308680261</v>
       </c>
-      <c r="H10">
+      <c r="H8">
         <v>17.39748411719745</v>
       </c>
     </row>
